--- a/Ejemplo Psi y R.xlsx
+++ b/Ejemplo Psi y R.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier G\Dropbox\Universidad\proyectos\Despeje En Camaras de Frio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\congo\Dropbox\Drive-through racking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{497A78D5-4B8B-470D-8DAF-06C64DF797C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9B3762-8BA1-41F3-84FF-9860FF3AB117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{DA54F442-FACB-4BFA-9D1E-65865E83EB97}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DA54F442-FACB-4BFA-9D1E-65865E83EB97}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>RL</t>
   </si>
@@ -61,12 +59,15 @@
   <si>
     <t>p</t>
   </si>
+  <si>
+    <t>*VALIDAR ORDEN DE LAS PROFUNDIDADES</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,12 +154,6 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -168,6 +163,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,29 +505,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB59B612-2914-43C4-9258-5097C4A7E4AB}">
   <dimension ref="C4:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="4" spans="4:14" x14ac:dyDescent="0.45">
-      <c r="D4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="J4" s="3" t="s">
+    <row r="4" spans="4:14">
+      <c r="D4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="J4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="4:14">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -535,10 +536,10 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="4:14">
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -547,155 +548,155 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="4:14" x14ac:dyDescent="0.45">
-      <c r="D7" s="8"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="4:14">
+      <c r="D7" s="6"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="1"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="4:14" x14ac:dyDescent="0.45">
-      <c r="D8" s="8"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="4:14">
+      <c r="D8" s="6"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="4:14" x14ac:dyDescent="0.45">
-      <c r="D9" s="9"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="5"/>
+    <row r="9" spans="4:14">
+      <c r="D9" s="7"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="1"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="5"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="3"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.45">
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+    <row r="10" spans="4:14">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="13" spans="4:14" x14ac:dyDescent="0.45">
-      <c r="D13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="J13" s="3" t="s">
+    <row r="13" spans="4:14">
+      <c r="D13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="J13" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="4:14">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="4:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="4:14">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="4:14" x14ac:dyDescent="0.45">
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="6"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="4"/>
+    <row r="16" spans="4:14">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="4"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="2"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+    <row r="17" spans="3:14">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="6"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="H17" s="4"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="D18" s="12"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="5"/>
+    <row r="18" spans="3:14">
+      <c r="D18" s="10"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="3"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+    <row r="19" spans="3:14">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="6"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="H19" s="4"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="F21" s="2" t="s">
+    <row r="21" spans="3:14">
+      <c r="F21" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="3:14">
       <c r="C22" t="s">
         <v>6</v>
       </c>
@@ -706,174 +707,177 @@
         <v>4</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H22">
         <v>3</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14">
       <c r="C23">
         <v>4</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <v>6</v>
       </c>
-      <c r="F23" s="11">
-        <v>0</v>
-      </c>
-      <c r="G23" s="11">
-        <v>0</v>
-      </c>
-      <c r="H23" s="11">
-        <v>0</v>
-      </c>
-      <c r="I23" s="11">
-        <v>0</v>
-      </c>
-      <c r="J23" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14">
       <c r="C24">
         <v>4</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24">
         <v>5</v>
       </c>
-      <c r="F24" s="11">
-        <v>0</v>
-      </c>
-      <c r="G24" s="11">
-        <v>0</v>
-      </c>
-      <c r="H24" s="11">
-        <v>0</v>
-      </c>
-      <c r="I24" s="11">
-        <v>0</v>
-      </c>
-      <c r="J24" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14">
       <c r="C25">
         <v>4</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>4</v>
       </c>
-      <c r="F25" s="11">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6">
-        <v>1</v>
-      </c>
-      <c r="H25" s="6">
-        <v>1</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0</v>
-      </c>
-      <c r="J25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="F25" s="9">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14">
       <c r="C26">
         <v>4</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>3</v>
       </c>
-      <c r="F26" s="11">
-        <v>0</v>
-      </c>
-      <c r="G26" s="6">
-        <v>1</v>
-      </c>
-      <c r="H26" s="6">
-        <v>1</v>
-      </c>
-      <c r="I26" s="11">
-        <v>0</v>
-      </c>
-      <c r="J26" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="F26" s="9">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14">
       <c r="C27">
         <v>4</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
-      <c r="F27" s="12">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6">
-        <v>1</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1</v>
-      </c>
-      <c r="I27" s="12">
-        <v>0</v>
-      </c>
-      <c r="J27" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="F27" s="10">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14">
       <c r="C28">
         <v>4</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" s="6">
-        <v>1</v>
-      </c>
-      <c r="G28" s="6">
-        <v>1</v>
-      </c>
-      <c r="H28" s="6">
-        <v>1</v>
-      </c>
-      <c r="I28" s="11">
-        <v>0</v>
-      </c>
-      <c r="J28" s="11">
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9">
         <v>0</v>
       </c>
     </row>
